--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_91.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1277173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>isophonics_277</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1017241379310345</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'B/3']]</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.09411764705882353</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'B']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.383333, 11.07068)]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.672857, 20.660521)]</t>
+          <t>[('0:00:06.090000', '0:00:13.659705')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:14.402743', '0:00:18.779705')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(58.12, 62.72), (16.82, 23.18)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_21</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5590062111801242</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:02:10.148000', '0:02:12.444000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:04.605000', '0:00:21.095000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(72.26, 75.56)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:08.200000', '0:00:30.680000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:44.180000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(34.86, 42.08)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(96.06, 107.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
